--- a/excel/TestData.xlsx
+++ b/excel/TestData.xlsx
@@ -66,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$₩-412]#,##0.00"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -171,6 +174,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -395,80 +399,77 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>100.0</v>
+      <c r="A4" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>80.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7">
-        <v>80.0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8">
+      <c r="A5" s="8">
         <v>3.0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C5" s="8">
         <v>60.0</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -489,20 +490,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
+      <c r="A2" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel/TestData.xlsx
+++ b/excel/TestData.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50830CCB-2F16-4009-AD3F-88BD1766A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestData" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="MapData" sheetId="2" r:id="rId5"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="MapData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>int</t>
   </si>
@@ -60,36 +69,66 @@
   </si>
   <si>
     <t>map1</t>
+  </si>
+  <si>
+    <t>Jisun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$₩-412]#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -97,7 +136,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,7 +152,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD9D9D9"/>
@@ -127,6 +172,7 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -135,67 +181,52 @@
       <right style="thin">
         <color rgb="FFE9ECEF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFE9ECEF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -385,20 +416,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -426,85 +462,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/TestData.xlsx
+++ b/excel/TestData.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50830CCB-2F16-4009-AD3F-88BD1766A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C6FF8-842C-4F90-A70E-6AEE31918C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="MapData" sheetId="2" r:id="rId2"/>
+    <sheet name="KeyTestData" sheetId="3" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId2"/>
+    <sheet name="MapData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>string</t>
   </si>
@@ -76,6 +74,14 @@
   </si>
   <si>
     <t>Yellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +213,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -422,86 +428,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D819504-98C5-4DFA-B58D-891D00EC2C77}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>80</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
         <v>60</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -509,16 +515,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>160</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F10" s="10"/>
     </row>
   </sheetData>
@@ -528,6 +534,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>80</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -543,17 +655,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestData.xlsx
+++ b/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C6FF8-842C-4F90-A70E-6AEE31918C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024572E-EA77-46A9-AFB5-4A8AE0C4D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>string</t>
   </si>
@@ -82,6 +82,182 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>궁수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -135,6 +311,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,13 +621,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -468,9 +660,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -482,9 +674,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -496,9 +688,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -510,22 +702,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>160</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F10" s="10"/>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -541,10 +719,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -574,9 +755,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
+    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -588,9 +769,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
@@ -602,9 +783,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -616,9 +797,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>15</v>
